--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AE8EF9-6440-4861-8DE4-AD5959BBA4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E0C67899-C70C-435C-9036-4DD08331201F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SOCIOS FUNDADORES " sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t xml:space="preserve">Marcelo Abril </t>
   </si>
@@ -154,14 +148,17 @@
   </si>
   <si>
     <t xml:space="preserve">NROS VEHICULOS </t>
+  </si>
+  <si>
+    <t>PAGOS SOCIOS MENSUALIDADES ABRILTRANS 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -385,26 +382,11 @@
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -480,6 +462,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,14 +785,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD67F8FC-BD29-46BE-9A0B-0DCCEB405A3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -809,224 +806,224 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>1726019084</v>
       </c>
-      <c r="C5" s="7">
-        <v>100</v>
-      </c>
-      <c r="D5" s="7">
-        <v>100</v>
-      </c>
-      <c r="E5" s="7">
-        <v>100</v>
-      </c>
-      <c r="F5" s="7">
-        <v>100</v>
-      </c>
-      <c r="G5" s="7">
-        <v>100</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
         <f>SUM(C5:G5)</f>
         <v>500</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="5">
         <f>H5-500</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>1803598133</v>
       </c>
-      <c r="C6" s="7">
-        <v>100</v>
-      </c>
-      <c r="D6" s="7">
-        <v>100</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="10">
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5">
         <f t="shared" ref="H6:H10" si="0">SUM(C6:G6)</f>
         <v>200</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="6">
         <f t="shared" ref="I6:I10" si="1">H6-500</f>
         <v>-300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>1719901926</v>
       </c>
-      <c r="C7" s="7">
-        <v>100</v>
-      </c>
-      <c r="D7" s="7">
-        <v>100</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10">
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>1722512124</v>
       </c>
-      <c r="C8" s="7">
-        <v>100</v>
-      </c>
-      <c r="D8" s="7">
-        <v>100</v>
-      </c>
-      <c r="E8" s="7">
-        <v>100</v>
-      </c>
-      <c r="F8" s="7">
-        <v>100</v>
-      </c>
-      <c r="G8" s="7">
-        <v>100</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>100</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4">
+        <v>100</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>1724600125</v>
       </c>
-      <c r="C9" s="7">
-        <v>100</v>
-      </c>
-      <c r="D9" s="7">
-        <v>100</v>
-      </c>
-      <c r="E9" s="7">
-        <v>100</v>
-      </c>
-      <c r="F9" s="7">
-        <v>100</v>
-      </c>
-      <c r="G9" s="7">
-        <v>100</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="C9" s="4">
+        <v>100</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>1726019084</v>
       </c>
-      <c r="C10" s="7">
-        <v>100</v>
-      </c>
-      <c r="D10" s="7">
-        <v>100</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10">
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="4">
         <f>SUM(H5:H10)</f>
         <v>2100</v>
       </c>
@@ -1043,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7D733-DD1E-42C0-AFDF-130C068E2B18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1060,292 +1057,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="17">
         <v>1755482898</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="11">
         <v>1726019084</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="13">
         <v>101</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="8">
         <v>1803598133</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>201</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="11">
         <v>1724600125</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="18">
-        <v>100</v>
-      </c>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="13">
+        <v>100</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="8">
         <v>1716325822</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <v>201</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="11">
         <v>1719901926</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="13">
         <v>101</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="8">
         <v>1725870057</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="11">
         <v>2350864985</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="14">
         <v>1723276133</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="24" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="11">
         <v>1705718847</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="13">
         <v>292</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{BCEFF4EF-C1CD-4892-9F67-5482C67E2D5E}"/>
-    <hyperlink ref="A11" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{E0D7811E-91B4-45D5-A92D-BFF36B725A52}"/>
-    <hyperlink ref="A10" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{288A2AE8-6BE0-4A83-AC31-5A4B1125B40B}"/>
-    <hyperlink ref="A9" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{B45A0485-E89E-47AC-A4A7-661D0BAB7D50}"/>
-    <hyperlink ref="A8" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{5E0D4648-E7A7-40D7-888E-FA10BD6A9887}"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{A94F9727-521C-46A5-AB07-30054FF2A982}"/>
-    <hyperlink ref="A6" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{501C6DE3-62E7-46D2-BC1B-83A11BDDF051}"/>
-    <hyperlink ref="A5" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{75B2CC47-8C08-4DD9-9E61-FAF622780B28}"/>
-    <hyperlink ref="A4" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{9FA74513-FD45-4BF1-8C36-DA3D478B2E27}"/>
-    <hyperlink ref="A3" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{EC47C3A2-CC17-477E-A410-6DB5062B412E}"/>
+    <hyperlink ref="A12" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A11" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A10" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A9" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A8" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A6" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A5" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A4" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A3" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354FC330-A7CC-42DF-A2F8-9DC171A9F41C}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="G1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="M1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="G3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>1755482898</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <v>-360</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="G4" s="17">
+        <v>1755482898</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M4" s="17">
+        <v>1755482898</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="31"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>1726019084</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="32">
         <v>1</v>
       </c>
       <c r="D5" s="1">
@@ -1354,15 +1420,45 @@
       <c r="E5" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="G5" s="11">
+        <v>1726019084</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="32">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>240</v>
+      </c>
+      <c r="K5" s="1">
+        <v>360</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1726019084</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="32">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>1803598133</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="D6" s="1">
@@ -1371,15 +1467,45 @@
       <c r="E6" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="G6" s="8">
+        <v>1803598133</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>240</v>
+      </c>
+      <c r="K6" s="1">
+        <v>360</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1803598133</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="31">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>1724600125</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="32">
         <v>1</v>
       </c>
       <c r="D7" s="1">
@@ -1388,15 +1514,45 @@
       <c r="E7" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="G7" s="11">
+        <v>1724600125</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="32">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>240</v>
+      </c>
+      <c r="K7" s="1">
+        <v>360</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1724600125</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="32">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>1716325822</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="31">
         <v>3</v>
       </c>
       <c r="D8" s="1">
@@ -1405,91 +1561,261 @@
       <c r="E8" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="G8" s="8">
+        <v>1716325822</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="31">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>720</v>
+      </c>
+      <c r="K8" s="1">
+        <v>360</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1716325822</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="31">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1">
+        <v>720</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>1719901926</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="1">
         <v>240</v>
       </c>
       <c r="E9" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="G9" s="11">
+        <v>1719901926</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="1">
+        <v>240</v>
+      </c>
+      <c r="K9" s="1">
+        <v>360</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1719901926</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="32"/>
+      <c r="P9" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>1725870057</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="1">
         <v>240</v>
       </c>
       <c r="E10" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="G10" s="8">
+        <v>1725870057</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="1">
+        <v>240</v>
+      </c>
+      <c r="K10" s="1">
+        <v>360</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1725870057</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>2350864985</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1">
         <v>240</v>
       </c>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="G11" s="11">
+        <v>2350864985</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="1">
+        <v>240</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="M11" s="11">
+        <v>2350864985</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>1723276133</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>-360</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="G12" s="14">
+        <v>1723276133</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1723276133</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="33"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>1705718847</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <v>-360</v>
       </c>
+      <c r="G13" s="11">
+        <v>1705718847</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1705718847</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="32"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
+        <v>-360</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{110391DD-A9D4-40BC-A265-6F4E3EE39124}"/>
-    <hyperlink ref="A12" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{8835A9D0-FBEB-46EF-A22A-C6F379BBDC5D}"/>
-    <hyperlink ref="A11" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{ACE5B91D-6537-4D9B-B03A-793C2590B999}"/>
-    <hyperlink ref="A10" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{348A71C8-E99C-462D-B9CD-28BCACCEA686}"/>
-    <hyperlink ref="A9" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{9187189B-2070-4F94-9F2A-0735B5278E7D}"/>
-    <hyperlink ref="A8" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{C8AE52A4-AF12-4E52-A420-B07E3895D4CD}"/>
-    <hyperlink ref="A7" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{B9A75E97-3063-432C-9C38-0069AA150A5A}"/>
-    <hyperlink ref="A6" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{1FF9F0AB-1298-4DE3-AF66-FF4B824A7FAA}"/>
-    <hyperlink ref="A5" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{6D1108C6-044E-41AB-A2FA-8957819D7777}"/>
-    <hyperlink ref="A4" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{0EFF39AB-173D-4007-9D64-8DC72A3EAAC3}"/>
+    <hyperlink ref="A13" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A12" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A11" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A10" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A9" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A8" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A7" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A6" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A5" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A4" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G13" r:id="rId11" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G12" r:id="rId12" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G11" r:id="rId13" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G10" r:id="rId14" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G9" r:id="rId15" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G8" r:id="rId16" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G7" r:id="rId17" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G6" r:id="rId18" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G5" r:id="rId19" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G4" r:id="rId20" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M13" r:id="rId21" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M12" r:id="rId22" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M11" r:id="rId23" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M10" r:id="rId24" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M9" r:id="rId25" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M8" r:id="rId26" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M7" r:id="rId27" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M6" r:id="rId28" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M5" r:id="rId29" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M4" r:id="rId30" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8450E60-2AC4-4788-BAAC-4918EA87CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOCIOS FUNDADORES " sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t xml:space="preserve">Marcelo Abril </t>
   </si>
@@ -151,14 +157,17 @@
   </si>
   <si>
     <t>PAGOS SOCIOS MENSUALIDADES ABRILTRANS 2022</t>
+  </si>
+  <si>
+    <t>PAGOS SOCIOS MENSUALIDADES ABRILTRANS 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -379,14 +388,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -437,8 +445,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -785,14 +792,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -806,15 +813,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -846,7 +853,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1">
@@ -867,17 +874,17 @@
       <c r="G5" s="4">
         <v>100</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>SUM(C5:G5)</f>
         <v>500</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>H5-500</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1">
@@ -892,17 +899,17 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="shared" ref="H6:H10" si="0">SUM(C6:G6)</f>
         <v>200</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" ref="I6:I10" si="1">H6-500</f>
         <v>-300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1">
@@ -917,17 +924,17 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
@@ -948,17 +955,17 @@
       <c r="G8" s="4">
         <v>100</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -979,17 +986,17 @@
       <c r="G9" s="4">
         <v>100</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1">
@@ -1004,25 +1011,25 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4">
         <f>SUM(H5:H10)</f>
         <v>2100</v>
@@ -1040,11 +1047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,237 +1064,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1755482898</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>1</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1726019084</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>101</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1803598133</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>201</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>1724600125</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13">
-        <v>100</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="D6" s="12">
+        <v>100</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>1716325822</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>201</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>1719901926</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>101</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>1725870057</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>2350864985</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>1723276133</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>1705718847</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>292</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A11" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A10" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A9" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A8" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A6" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A5" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A4" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A3" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A12" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A11" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A10" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A9" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A6" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A5" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A4" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A3" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,118 +1307,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="M1" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="M1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>1755482898</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <v>-360</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>1755482898</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
         <v>-360</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <v>1755482898</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="31"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1">
         <v>-360</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>1726019084</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" s="1">
@@ -1420,13 +1427,13 @@
       <c r="E5" s="1">
         <v>360</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>1726019084</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="30">
         <v>1</v>
       </c>
       <c r="J5" s="1">
@@ -1435,13 +1442,13 @@
       <c r="K5" s="1">
         <v>360</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>1726019084</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="30">
         <v>1</v>
       </c>
       <c r="P5" s="1">
@@ -1451,14 +1458,14 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>1803598133</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>1</v>
       </c>
       <c r="D6" s="1">
@@ -1467,28 +1474,24 @@
       <c r="E6" s="1">
         <v>360</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1803598133</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="31">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>240</v>
-      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1">
-        <v>360</v>
-      </c>
-      <c r="M6" s="8">
+        <v>-360</v>
+      </c>
+      <c r="M6" s="7">
         <v>1803598133</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="29">
         <v>1</v>
       </c>
       <c r="P6" s="1">
@@ -1498,14 +1501,14 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+    <row r="7" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>1724600125</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <v>1</v>
       </c>
       <c r="D7" s="1">
@@ -1514,28 +1517,28 @@
       <c r="E7" s="1">
         <v>360</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>1724600125</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="32">
-        <v>1</v>
+      <c r="I7" s="30">
+        <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="K7" s="1">
         <v>360</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>1724600125</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="30">
         <v>1</v>
       </c>
       <c r="P7" s="1">
@@ -1545,29 +1548,29 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+    <row r="8" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>1716325822</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31">
-        <v>3</v>
+      <c r="C8" s="29">
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="E8" s="1">
         <v>360</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>1716325822</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="29">
         <v>3</v>
       </c>
       <c r="J8" s="1">
@@ -1576,13 +1579,13 @@
       <c r="K8" s="1">
         <v>360</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>1716325822</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="29">
         <v>3</v>
       </c>
       <c r="P8" s="1">
@@ -1592,40 +1595,44 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row r="9" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>1719901926</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
       <c r="D9" s="1">
         <v>240</v>
       </c>
       <c r="E9" s="1">
         <v>360</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>1719901926</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="30">
+        <v>1</v>
+      </c>
       <c r="J9" s="1">
         <v>240</v>
       </c>
       <c r="K9" s="1">
         <v>360</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>1719901926</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="32"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="1">
         <v>240</v>
       </c>
@@ -1633,40 +1640,44 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>1725870057</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
       <c r="D10" s="1">
         <v>240</v>
       </c>
       <c r="E10" s="1">
         <v>360</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>1725870057</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
       <c r="J10" s="1">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="K10" s="1">
-        <v>360</v>
-      </c>
-      <c r="M10" s="8">
+        <v>210</v>
+      </c>
+      <c r="M10" s="7">
         <v>1725870057</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="31"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="1">
         <v>240</v>
       </c>
@@ -1674,106 +1685,104 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>2350864985</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="32"/>
+    <row r="11" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="1">
         <v>240</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>2350864985</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="1">
-        <v>240</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="M11" s="11">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
+        <v>150</v>
+      </c>
+      <c r="M11" s="10">
         <v>2350864985</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="32"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="1">
         <v>240</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+    <row r="12" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>1723276133</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>-360</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>1723276133</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
         <v>-360</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>1723276133</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="33"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
         <v>-360</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>1705718847</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <v>-360</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>1705718847</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <v>-360</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>1705718847</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="N13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="32"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
         <v>-360</v>
@@ -1786,36 +1795,35 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A12" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A11" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A10" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A9" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A8" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A7" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A6" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A5" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="A4" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G13" r:id="rId11" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G12" r:id="rId12" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G11" r:id="rId13" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G10" r:id="rId14" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G9" r:id="rId15" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G8" r:id="rId16" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G7" r:id="rId17" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G6" r:id="rId18" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G5" r:id="rId19" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="G4" r:id="rId20" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M13" r:id="rId21" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M12" r:id="rId22" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M11" r:id="rId23" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M10" r:id="rId24" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M9" r:id="rId25" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M8" r:id="rId26" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M7" r:id="rId27" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M6" r:id="rId28" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M5" r:id="rId29" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
-    <hyperlink ref="M4" r:id="rId30" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A13" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A12" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A10" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A9" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A6" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A5" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A4" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="G13" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="G12" r:id="rId11" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="G11" r:id="rId12" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="G10" r:id="rId13" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId14" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="G8" r:id="rId15" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="G7" r:id="rId16" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="G6" r:id="rId17" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="G5" r:id="rId18" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="G4" r:id="rId19" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="M13" r:id="rId20" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="M12" r:id="rId21" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="M11" r:id="rId22" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="M10" r:id="rId23" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="M9" r:id="rId24" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="M8" r:id="rId25" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="M7" r:id="rId26" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="M6" r:id="rId27" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="M5" r:id="rId28" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="M4" r:id="rId29" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8450E60-2AC4-4788-BAAC-4918EA87CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9256D66F-FDE8-4F9E-9DD5-E2DB21264896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,11 +1494,9 @@
       <c r="O6" s="29">
         <v>1</v>
       </c>
-      <c r="P6" s="1">
-        <v>240</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>360</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1539,10 +1537,10 @@
         <v>20</v>
       </c>
       <c r="O7" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="Q7" s="1">
         <v>360</v>
@@ -1678,11 +1676,9 @@
         <v>23</v>
       </c>
       <c r="O10" s="29"/>
-      <c r="P10" s="1">
-        <v>240</v>
-      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1">
-        <v>360</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1716,7 +1712,9 @@
       <c r="P11" s="1">
         <v>240</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1">
+        <v>360</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">

--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9256D66F-FDE8-4F9E-9DD5-E2DB21264896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1D2524-4439-4E1D-9331-3E50765F013C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOCIOS FUNDADORES " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t xml:space="preserve">Marcelo Abril </t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>PAGOS SOCIOS MENSUALIDADES ABRILTRANS 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Abril </t>
   </si>
 </sst>
 </file>
@@ -800,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I11"/>
+  <dimension ref="A3:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,11 +903,11 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f t="shared" ref="H6:H10" si="0">SUM(C6:G6)</f>
+        <f t="shared" ref="H6:H12" si="0">SUM(C6:G6)</f>
         <v>200</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" ref="I6:I10" si="1">H6-500</f>
+        <f t="shared" ref="I6:I12" si="1">H6-500</f>
         <v>-300</v>
       </c>
     </row>
@@ -1012,34 +1015,60 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H10" si="2">SUM(C10:G10)</f>
         <v>200</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I10" si="3">H10-500</f>
         <v>-300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="4">
+        <v>100</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="4">
-        <f>SUM(H5:H10)</f>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="4">
+        <f>SUM(H5:H12)</f>
         <v>2100</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1293,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="F7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>

--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1D2524-4439-4E1D-9331-3E50765F013C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36632198-8F7B-4787-90B0-A91C841551CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,7 +806,7 @@
   <dimension ref="A3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,11 +903,11 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f t="shared" ref="H6:H12" si="0">SUM(C6:G6)</f>
+        <f t="shared" ref="H6:H9" si="0">SUM(C6:G6)</f>
         <v>200</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" ref="I6:I12" si="1">H6-500</f>
+        <f t="shared" ref="I6:I9" si="1">H6-500</f>
         <v>-300</v>
       </c>
     </row>
@@ -924,16 +924,18 @@
       <c r="D7" s="4">
         <v>100</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
-        <v>-300</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1011,16 +1013,18 @@
       <c r="D10" s="4">
         <v>100</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>50</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
         <f t="shared" ref="H10" si="2">SUM(C10:G10)</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ref="I10" si="3">H10-500</f>
-        <v>-300</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,7 +1065,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="4">
         <f>SUM(H5:H12)</f>
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I13" s="1"/>
     </row>

--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36632198-8F7B-4787-90B0-A91C841551CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E46838-0AD0-4C94-972A-53449437BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t xml:space="preserve">Marcelo Abril </t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">David Abril </t>
+  </si>
+  <si>
+    <t>Segundo Sandoval</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
   <dimension ref="A3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1022,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f t="shared" ref="H10" si="2">SUM(C10:G10)</f>
+        <f t="shared" ref="H10:H12" si="2">SUM(C10:G10)</f>
         <v>250</v>
       </c>
       <c r="I10" s="5">
@@ -1039,18 +1042,28 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>500</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1065,7 +1078,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="4">
         <f>SUM(H5:H12)</f>
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="I13" s="1"/>
     </row>

--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E46838-0AD0-4C94-972A-53449437BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356F1460-623A-4243-87E1-D3F31AE9E74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOCIOS FUNDADORES " sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t xml:space="preserve">Marcelo Abril </t>
   </si>
@@ -166,6 +167,18 @@
   </si>
   <si>
     <t>Segundo Sandoval</t>
+  </si>
+  <si>
+    <t>FIRMA</t>
+  </si>
+  <si>
+    <t>Alfredo Sandoval</t>
+  </si>
+  <si>
+    <t>German Masabanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ASISTENCIA MINGA 27-08-2023</t>
   </si>
 </sst>
 </file>
@@ -175,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +233,21 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -394,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -490,6 +518,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1871,4 +1911,130 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F01B68F-2DCA-4D76-8659-DA02FD7AB73F}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="40">
+        <v>1726019084</v>
+      </c>
+      <c r="C5" s="39"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="40">
+        <v>1803598133</v>
+      </c>
+      <c r="C6" s="39"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="40">
+        <v>1719901926</v>
+      </c>
+      <c r="C7" s="39"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="40">
+        <v>1722512124</v>
+      </c>
+      <c r="C8" s="39"/>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="40">
+        <v>1724600125</v>
+      </c>
+      <c r="C9" s="39"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="40">
+        <v>1726019084</v>
+      </c>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="39"/>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356F1460-623A-4243-87E1-D3F31AE9E74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271C0E1-FB5A-45BD-BE55-07F2D10DE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4965" yWindow="3015" windowWidth="15375" windowHeight="7785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOCIOS FUNDADORES " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
   <si>
     <t xml:space="preserve">Marcelo Abril </t>
   </si>
@@ -178,7 +178,22 @@
     <t>German Masabanda</t>
   </si>
   <si>
-    <t xml:space="preserve">    ASISTENCIA MINGA 27-08-2023</t>
+    <t>Estefania Abril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Moya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Aguilera </t>
+  </si>
+  <si>
+    <t>Franklin abril</t>
+  </si>
+  <si>
+    <t>Stalin abril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ASISTENCIA SECION 02 DE SEPTIEMBRE DEL 2023</t>
   </si>
 </sst>
 </file>
@@ -422,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -504,6 +519,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,18 +546,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -859,15 +881,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1107,15 +1129,15 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="4">
         <f>SUM(H5:H12)</f>
         <v>2800</v>
@@ -1128,7 +1150,7 @@
     <mergeCell ref="A13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1136,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1393,27 +1415,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="M1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1915,126 +1937,145 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F01B68F-2DCA-4D76-8659-DA02FD7AB73F}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="40">
-        <v>1726019084</v>
-      </c>
-      <c r="C5" s="39"/>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="40">
-        <v>1803598133</v>
-      </c>
-      <c r="C6" s="39"/>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="40">
-        <v>1719901926</v>
-      </c>
-      <c r="C7" s="39"/>
-    </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="40">
-        <v>1722512124</v>
-      </c>
-      <c r="C8" s="39"/>
-    </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="40">
-        <v>1724600125</v>
-      </c>
-      <c r="C9" s="39"/>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="40">
-        <v>1726019084</v>
-      </c>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-    </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-    </row>
-    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271C0E1-FB5A-45BD-BE55-07F2D10DE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2D2D17-840D-4EFF-BB45-6E38C25930F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4965" yWindow="3015" windowWidth="15375" windowHeight="7785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOCIOS FUNDADORES " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t xml:space="preserve">Marcelo Abril </t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve">              ASISTENCIA SECION 02 DE SEPTIEMBRE DEL 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betty Ramos </t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -531,6 +534,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,13 +553,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I13"/>
+  <dimension ref="A3:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,15 +881,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -968,7 +968,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f t="shared" ref="H6:H9" si="0">SUM(C6:G6)</f>
+        <f t="shared" ref="H6:H15" si="0">SUM(C6:G6)</f>
         <v>200</v>
       </c>
       <c r="I6" s="5">
@@ -992,15 +992,17 @@
       <c r="E7" s="4">
         <v>50</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
-        <v>-250</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1081,15 +1083,17 @@
       <c r="E10" s="4">
         <v>50</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f t="shared" ref="H10:H12" si="2">SUM(C10:G10)</f>
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>350</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10" si="3">H10-500</f>
-        <v>-250</v>
+        <f t="shared" ref="I10:I12" si="2">H10-500</f>
+        <v>-150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,49 +1109,105 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I11" s="4"/>
+        <v>-400</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="4">
-        <v>500</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="2"/>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="4">
         <v>500</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4">
+        <v>500</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4">
+        <v>500</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="4">
-        <f>SUM(H5:H12)</f>
-        <v>2800</v>
-      </c>
-      <c r="I13" s="1"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="4">
+        <f>SUM(H5:H15)</f>
+        <v>3200</v>
+      </c>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1415,27 +1475,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="M1" s="41" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="M1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="3" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1939,7 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F01B68F-2DCA-4D76-8659-DA02FD7AB73F}">
   <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1951,11 +2011,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="36"/>
@@ -2044,35 +2104,35 @@
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="42"/>
+      <c r="A19" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2D2D17-840D-4EFF-BB45-6E38C25930F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28008235-1D30-4853-9ABC-954EC02F1D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,7 +871,7 @@
   <dimension ref="A3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1210,7 @@
     <mergeCell ref="A16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1461,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="F4" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>

--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28008235-1D30-4853-9ABC-954EC02F1D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="SOCIOS FUNDADORES " sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -202,9 +196,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -445,8 +439,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -860,18 +854,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,14 +989,16 @@
       <c r="F7" s="4">
         <v>100</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
-        <v>-150</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1086,14 +1082,16 @@
       <c r="F10" s="4">
         <v>100</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>100</v>
+      </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ref="I10:I12" si="2">H10-500</f>
-        <v>-150</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1128,16 +1126,18 @@
       <c r="D12" s="4">
         <v>100</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>100</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="2"/>
-        <v>-300</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,7 +1200,7 @@
       <c r="G16" s="42"/>
       <c r="H16" s="4">
         <f>SUM(H5:H15)</f>
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -1215,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1442,23 +1442,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A11" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A10" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A9" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A8" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A6" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A5" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A4" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A3" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A11" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A10" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A9" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A8" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A6" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A5" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A4" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A3" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView topLeftCell="F4" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
@@ -1961,42 +1961,42 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A12" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A10" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A9" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A6" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="A5" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="A4" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="G13" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="G12" r:id="rId11" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="G11" r:id="rId12" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="G10" r:id="rId13" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId14" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="G8" r:id="rId15" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="G7" r:id="rId16" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="G6" r:id="rId17" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="G5" r:id="rId18" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="G4" r:id="rId19" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="M13" r:id="rId20" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="M12" r:id="rId21" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="M11" r:id="rId22" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="M10" r:id="rId23" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="M9" r:id="rId24" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="M8" r:id="rId25" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="M7" r:id="rId26" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="M6" r:id="rId27" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="M5" r:id="rId28" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="M4" r:id="rId29" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="A13" r:id="rId1" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A12" r:id="rId2" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A10" r:id="rId3" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A9" r:id="rId4" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A8" r:id="rId5" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A6" r:id="rId7" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A5" r:id="rId8" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="A4" r:id="rId9" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G13" r:id="rId10" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G12" r:id="rId11" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G11" r:id="rId12" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G10" r:id="rId13" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G9" r:id="rId14" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G8" r:id="rId15" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G7" r:id="rId16" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G6" r:id="rId17" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G5" r:id="rId18" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="G4" r:id="rId19" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M13" r:id="rId20" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M12" r:id="rId21" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M11" r:id="rId22" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M10" r:id="rId23" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M9" r:id="rId24" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M8" r:id="rId25" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M7" r:id="rId26" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M6" r:id="rId27" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M5" r:id="rId28" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
+    <hyperlink ref="M4" r:id="rId29" tooltip="Haga clic aquí para ver el detalle de la participación de esta persona en las compañías" display="https://appscvssoc.supercias.gob.ec/consultaCompanias/societario/informacionCompanias.jsf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F01B68F-2DCA-4D76-8659-DA02FD7AB73F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">

--- a/DOC 2023/SOCIOS ACCIONISTAS.xlsx
+++ b/DOC 2023/SOCIOS ACCIONISTAS.xlsx
@@ -854,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,7 +865,7 @@
   <dimension ref="A3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,10 +1135,7 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
